--- a/myopia-business/bootstrap/src/main/resources/excel/导入筛查人员.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/导入筛查人员.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simple4h/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15576EE6-F513-1744-9DED-34AC494B327F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B54241-E157-A844-8791-A331781181A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,14 +66,14 @@
   </si>
   <si>
     <t>350201199308194277</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -97,12 +97,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -110,9 +104,25 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -164,7 +174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -174,20 +184,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,25 +490,25 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="62" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -501,7 +517,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -512,23 +528,23 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>15219466201</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -554,7 +570,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$G$3:$G$4</formula1>
@@ -567,12 +583,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -793,15 +806,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA08F66D-4798-4B43-8797-EA9E77AFFA53}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F62DC28F-306E-455F-9450-5F7470941167}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -826,10 +843,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F62DC28F-306E-455F-9450-5F7470941167}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA08F66D-4798-4B43-8797-EA9E77AFFA53}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>